--- a/data/all_accuracy_2.xlsx
+++ b/data/all_accuracy_2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/aaron_pilot_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDBE183-DC28-634A-9656-159B2DA6CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53883CF2-7435-F244-9ABE-9E27F7DA499A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15840" xr2:uid="{5AFA0782-213A-1B47-9967-F84A01FCF19D}"/>
+    <workbookView xWindow="16600" yWindow="-18180" windowWidth="27640" windowHeight="15840" activeTab="1" xr2:uid="{5AFA0782-213A-1B47-9967-F84A01FCF19D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>session</t>
   </si>
@@ -47,6 +48,15 @@
   </si>
   <si>
     <t>giad</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>IA</t>
   </si>
 </sst>
 </file>
@@ -99,6 +109,2116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>78.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D711-0148-8EFD-1FEB9B679524}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>58.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.290000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D711-0148-8EFD-1FEB9B679524}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>88.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D711-0148-8EFD-1FEB9B679524}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="385945247"/>
+        <c:axId val="385947743"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="385945247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385947743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385947743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385945247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="9"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="25400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-DC8B-D542-9298-8E9F26449CD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.78259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83230000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC8B-D542-9298-8E9F26449CD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="9"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-DC8B-D542-9298-8E9F26449CD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.58819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61109999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56410000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63790000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71289999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC8B-D542-9298-8E9F26449CD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="10"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DC8B-D542-9298-8E9F26449CD8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.88680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82930000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85840000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC8B-D542-9298-8E9F26449CD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="423483135"/>
+        <c:axId val="423484783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="423483135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423484783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423484783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423483135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86376942916797428"/>
+          <c:y val="0.43408156988188978"/>
+          <c:w val="0.12583195731382799"/>
+          <c:h val="0.3167326935695538"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA890EC8-1193-4B4E-A9ED-9BB6CB2373DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316C3FE2-60AF-CF41-A041-9E0A07D1C3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDFBB7D-0369-EE43-BA75-3042117B7299}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,5 +2645,139 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73AE329-68E7-C640-B072-5B5A2D17679F}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="C2">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="D2">
+        <v>0.88680000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.82930000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.56410000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.8609</v>
+      </c>
+      <c r="C5">
+        <v>0.51849999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.85109999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.5625</v>
+      </c>
+      <c r="D6">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.83230000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.85840000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="D8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.71289999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>